--- a/SCBAA/2016/NCR.xlsx
+++ b/SCBAA/2016/NCR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBA\Done XLSX - 2016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2016\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D762F908-C7A9-4826-B6C1-E9A2DF3E2C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5746A62-B22B-4DCF-855E-ABBAAFE0738E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12375" yWindow="225" windowWidth="14625" windowHeight="12540" tabRatio="927" firstSheet="8" activeTab="15" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="10890" yWindow="1110" windowWidth="14880" windowHeight="13170" tabRatio="927" firstSheet="8" activeTab="11" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Taguig" sheetId="13" r:id="rId1"/>
@@ -35,12 +35,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="81">
   <si>
     <t>STATEMENT OF COMPARISON OF BUDGET AND ACTUAL AMOUNTS</t>
   </si>
@@ -280,9 +287,6 @@
   </si>
   <si>
     <t>CITY OF MANILA</t>
-  </si>
-  <si>
-    <t>For the Year Ended December 31, 2015</t>
   </si>
   <si>
     <t>CITY OF VALENZUELA</t>
@@ -4788,8 +4792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E78DC5-0A13-4BEC-B5E5-A61A49105735}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4828,7 +4832,7 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B3" s="88"/>
       <c r="C3" s="88"/>
@@ -4914,7 +4918,7 @@
         <v>24</v>
       </c>
       <c r="E11" s="18">
-        <v>165019777.61000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -4925,7 +4929,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="49">
-        <v>167284385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -4936,7 +4940,7 @@
         <v>26</v>
       </c>
       <c r="E13" s="49">
-        <v>17176769.829999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -4948,7 +4952,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="19">
         <f>SUM(E11:E13)</f>
-        <v>349480932.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -4968,7 +4972,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="49">
-        <v>88486400.530000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4979,7 +4983,7 @@
         <v>28</v>
       </c>
       <c r="E17" s="49">
-        <v>83165239.359999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4990,7 +4994,7 @@
         <v>29</v>
       </c>
       <c r="E18" s="49">
-        <v>486976.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5002,7 +5006,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="19">
         <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
-        <v>172138616.36999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5022,7 +5026,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="49">
-        <v>599753964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5064,7 +5068,7 @@
         <v>35</v>
       </c>
       <c r="E25" s="49">
-        <v>1241548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5075,7 +5079,7 @@
         <v>36</v>
       </c>
       <c r="E26" s="49">
-        <v>4449125.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5106,7 +5110,7 @@
         <v>39</v>
       </c>
       <c r="E29" s="49">
-        <v>101009799.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5193,7 +5197,7 @@
       <c r="D37" s="8"/>
       <c r="E37" s="19">
         <f>SUM(E14,E19,E21:E36)</f>
-        <v>1228073985.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5238,7 +5242,7 @@
         <v>11</v>
       </c>
       <c r="E42" s="18">
-        <v>174644123.28999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5249,7 +5253,7 @@
         <v>12</v>
       </c>
       <c r="E43" s="18">
-        <v>164933728.72999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5260,7 +5264,7 @@
         <v>13</v>
       </c>
       <c r="E44" s="18">
-        <v>14614106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5280,7 +5284,7 @@
         <v>11</v>
       </c>
       <c r="E46" s="18">
-        <v>20734933.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5291,7 +5295,7 @@
         <v>12</v>
       </c>
       <c r="E47" s="18">
-        <v>101409519.15000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5302,7 +5306,7 @@
         <v>13</v>
       </c>
       <c r="E48" s="18">
-        <v>67400901.170000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5322,7 +5326,7 @@
         <v>11</v>
       </c>
       <c r="E50" s="18">
-        <v>77432386.859999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5333,7 +5337,7 @@
         <v>12</v>
       </c>
       <c r="E51" s="18">
-        <v>11929722.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5344,7 +5348,7 @@
         <v>13</v>
       </c>
       <c r="E52" s="18">
-        <v>871118.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5448,7 +5452,7 @@
         <v>11</v>
       </c>
       <c r="E62" s="18">
-        <v>17264779.260000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5459,7 +5463,7 @@
         <v>12</v>
       </c>
       <c r="E63" s="18">
-        <v>18301330.690000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5470,7 +5474,7 @@
         <v>13</v>
       </c>
       <c r="E64" s="18">
-        <v>133187.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5490,7 +5494,7 @@
         <v>11</v>
       </c>
       <c r="E66" s="18">
-        <v>27117505.059999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5501,7 +5505,7 @@
         <v>12</v>
       </c>
       <c r="E67" s="18">
-        <v>117172463.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5512,7 +5516,7 @@
         <v>13</v>
       </c>
       <c r="E68" s="18">
-        <v>7803896.6100000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5583,7 +5587,7 @@
         <v>48</v>
       </c>
       <c r="E75" s="18">
-        <v>47978175.130000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5594,7 +5598,7 @@
         <v>49</v>
       </c>
       <c r="E76" s="23">
-        <v>10777969.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5614,7 +5618,7 @@
         <v>50</v>
       </c>
       <c r="E78" s="18">
-        <v>19453419.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5625,7 +5629,7 @@
         <v>51</v>
       </c>
       <c r="E79" s="18">
-        <v>13867685.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5645,7 +5649,7 @@
         <v>50</v>
       </c>
       <c r="E81" s="18">
-        <v>116686607.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -5738,7 +5742,7 @@
         <v>58</v>
       </c>
       <c r="E90" s="23">
-        <v>18132000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -5749,7 +5753,7 @@
         <v>50</v>
       </c>
       <c r="E91" s="18">
-        <v>1050000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -5770,7 +5774,7 @@
       <c r="D93" s="8"/>
       <c r="E93" s="30">
         <f>SUM(E41:E92)</f>
-        <v>1049709560.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -5801,7 +5805,7 @@
         <v>13</v>
       </c>
       <c r="E96" s="18">
-        <v>2480714</v>
+        <v>0</v>
       </c>
       <c r="F96" s="10"/>
       <c r="G96" s="8"/>
@@ -5827,7 +5831,7 @@
         <v>13</v>
       </c>
       <c r="E98" s="18">
-        <v>27433353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5845,7 +5849,7 @@
         <v>13</v>
       </c>
       <c r="E100" s="18">
-        <v>1968679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5899,7 +5903,7 @@
         <v>13</v>
       </c>
       <c r="E106" s="18">
-        <v>6806340</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -5917,7 +5921,7 @@
         <v>13</v>
       </c>
       <c r="E108" s="18">
-        <v>27004742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -5945,7 +5949,7 @@
       </c>
       <c r="E111" s="37">
         <f>SUM(E95:E110)</f>
-        <v>65693828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -5957,7 +5961,7 @@
       <c r="D112" s="17"/>
       <c r="E112" s="31">
         <f>SUM(E93,E111)</f>
-        <v>1115403388.47</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8385,7 +8389,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="88" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="88"/>
       <c r="C1" s="88"/>
@@ -9565,7 +9569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4174D3-66FB-48CE-89AC-1BCE7F29C4D5}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
